--- a/audit-seo.xlsx
+++ b/audit-seo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lim David\Desktop\site\Projet Openclassoom\la-panthere-non-optimise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30971324-9852-41C0-A3CE-ADC3CA52428A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74221057-8461-41FD-B20B-A52CFF5122A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="38">
   <si>
     <t>Catégorie</t>
   </si>
@@ -136,13 +136,31 @@
   </si>
   <si>
     <t>La valeur par défaut de la balise HTML</t>
+  </si>
+  <si>
+    <t>L'utilisation de la proprièté "max-device-with" dans la feuille Css</t>
+  </si>
+  <si>
+    <t>Propriété padding erroné dans le code Css</t>
+  </si>
+  <si>
+    <t>Optimisation/Seo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manque de suivis pour savoir des informations sur les visiteurs du site </t>
+  </si>
+  <si>
+    <t>Optiminisation</t>
+  </si>
+  <si>
+    <t>Les différents types de formats pour les images</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -173,8 +191,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,6 +209,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor rgb="FF7030A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -207,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -219,6 +255,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -438,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -506,7 +548,7 @@
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -516,7 +558,7 @@
       <c r="F3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -531,7 +573,7 @@
       <c r="F4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -546,7 +588,7 @@
       <c r="F5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -561,7 +603,7 @@
       <c r="F6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -576,7 +618,7 @@
       <c r="F7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -591,7 +633,7 @@
       <c r="F8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -606,7 +648,7 @@
       <c r="F9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -621,7 +663,7 @@
       <c r="F10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -636,7 +678,7 @@
       <c r="F11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -651,7 +693,7 @@
       <c r="F12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -666,7 +708,7 @@
       <c r="F13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -681,7 +723,7 @@
       <c r="F14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -696,7 +738,7 @@
       <c r="F15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -710,26 +752,78 @@
       <c r="F16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:8" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/audit-seo.xlsx
+++ b/audit-seo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lim David\Desktop\site\Projet Openclassoom\la-panthere-non-optimise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74221057-8461-41FD-B20B-A52CFF5122A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60ECE52-7ECC-4940-BB3C-A15BF4035D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
   <si>
     <t>Catégorie</t>
   </si>
@@ -154,6 +154,64 @@
   </si>
   <si>
     <t>Les différents types de formats pour les images</t>
+  </si>
+  <si>
+    <t>En format desktop et 
+tablette la barre de navigation 
+n'est pas entièrement visible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En format mobile les images textes sont coupé, on ne 
+peut pas lire le texte entièrement </t>
+  </si>
+  <si>
+    <t>La couleur se fait du texte
+ n'a pas assez de contraste avec la couleur de l'arrière-plan, le texte est donc impossible à voir</t>
+  </si>
+  <si>
+    <t>Les images texte n'apporte aucune valeur ajouté pour le Seo</t>
+  </si>
+  <si>
+    <t>C'est balise sont importante pour donné envie au visiteur de voir le site</t>
+  </si>
+  <si>
+    <t>Un des critères utilisé par googler pour son référencement et aussi pour la compréhension des utilisateurs du site</t>
+  </si>
+  <si>
+    <t>Manque d'effet visuel pour l'expérience utilisateur lors du survol de la souris pour la barre de navigation</t>
+  </si>
+  <si>
+    <t>Manque d'outil de suivis
+ pour collecté des informations des visiteurs du site afin d'amélioré le site</t>
+  </si>
+  <si>
+    <t>Selon les types de formats 
+le poids des images est susceptible d'être plus ou moins conséquent</t>
+  </si>
+  <si>
+    <t>Pour l'expérience utilisateur qui va d'une page à l'autre, pour pas qu'il ne se sente perdu</t>
+  </si>
+  <si>
+    <t>Les liens externe présenté en pied de page ne présente peu d'intérét et peu même pénalisé dans le référencement google</t>
+  </si>
+  <si>
+    <t>Les mots clé ne sont pas mis au bon endroit dans le site et peuvent même être intérprété par google comme une pratique black hat</t>
+  </si>
+  <si>
+    <t>Manque de marque sémantique</t>
+  </si>
+  <si>
+    <t>Les marques sémantique 
+permette de donner du sens à du code à google</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avoir des description similaire est un problème pour les personne malvoyant  </t>
+  </si>
+  <si>
+    <t>La page contact n'a pas accès à des fonctions javascript</t>
+  </si>
+  <si>
+    <t>Cette proprièté devient obsolète avec le temp</t>
   </si>
 </sst>
 </file>
@@ -243,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -262,6 +320,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -480,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -551,8 +612,11 @@
       <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="9" t="s">
         <v>10</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="6" t="s">
@@ -566,8 +630,11 @@
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="9" t="s">
         <v>12</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="6" t="s">
@@ -581,8 +648,11 @@
       <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="9" t="s">
         <v>13</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="6" t="s">
@@ -596,8 +666,11 @@
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="9" t="s">
         <v>16</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="6" t="s">
@@ -611,8 +684,11 @@
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="9" t="s">
         <v>17</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="6" t="s">
@@ -622,12 +698,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="9" t="s">
         <v>24</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="6" t="s">
@@ -637,12 +716,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="9" t="s">
         <v>21</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="6" t="s">
@@ -656,8 +738,11 @@
       <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="9" t="s">
         <v>22</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="6" t="s">
@@ -667,12 +752,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="9" t="s">
         <v>23</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="6" t="s">
@@ -682,12 +770,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="9" t="s">
         <v>26</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="6" t="s">
@@ -697,12 +788,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="9" t="s">
         <v>28</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="6" t="s">
@@ -716,7 +810,7 @@
       <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="4"/>
@@ -731,8 +825,11 @@
       <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="9" t="s">
         <v>30</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="6" t="s">
@@ -746,7 +843,7 @@
       <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="9" t="s">
         <v>31</v>
       </c>
       <c r="F16" s="6" t="s">
@@ -760,8 +857,11 @@
       <c r="A17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="9" t="s">
         <v>32</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>14</v>
@@ -774,7 +874,7 @@
       <c r="A18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="9" t="s">
         <v>33</v>
       </c>
       <c r="F18" s="6" t="s">
@@ -784,12 +884,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="79.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="9" t="s">
         <v>35</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>14</v>
@@ -798,12 +901,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="79.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="9" t="s">
         <v>37</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>14</v>
@@ -812,7 +918,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
